--- a/testData/Book1.xlsx
+++ b/testData/Book1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4305" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4421" uniqueCount="519">
   <si>
     <t>4.7</t>
   </si>
@@ -1984,122 +1984,122 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s" s="0">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s" s="0">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s" s="0">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s" s="0">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s" s="0">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s" s="0">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s" s="0">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s" s="0">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s" s="0">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s" s="0">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
@@ -2114,122 +2114,122 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s" s="0">
-        <v>138</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s" s="0">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s" s="0">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s" s="0">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s" s="0">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s" s="0">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s" s="0">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s" s="0">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s" s="0">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s" s="0">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s" s="0">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s" s="0">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s" s="0">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s" s="0">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s" s="0">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s" s="0">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s" s="0">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s" s="0">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s" s="0">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s" s="0">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s" s="0">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s" s="0">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s" s="0">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s" s="0">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
@@ -2244,122 +2244,122 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s" s="0">
-        <v>161</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s" s="0">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s" s="0">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s" s="0">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s" s="0">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s" s="0">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s" s="0">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s" s="0">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s" s="0">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s" s="0">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s" s="0">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s" s="0">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s" s="0">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s" s="0">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s" s="0">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s" s="0">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s" s="0">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s" s="0">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s" s="0">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s" s="0">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s" s="0">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s" s="0">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s" s="0">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s" s="0">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
@@ -2374,122 +2374,122 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s" s="0">
-        <v>184</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s" s="0">
-        <v>496</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s" s="0">
-        <v>497</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s" s="0">
-        <v>498</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s" s="0">
-        <v>499</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s" s="0">
-        <v>500</v>
+        <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s" s="0">
-        <v>501</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s" s="0">
-        <v>502</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s" s="0">
-        <v>503</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s" s="0">
-        <v>504</v>
+        <v>217</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s" s="0">
-        <v>505</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s" s="0">
-        <v>506</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s" s="0">
-        <v>507</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s" s="0">
-        <v>508</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s" s="0">
-        <v>509</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s" s="0">
-        <v>510</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s" s="0">
-        <v>511</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s" s="0">
-        <v>512</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s" s="0">
-        <v>513</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s" s="0">
-        <v>514</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s" s="0">
-        <v>515</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s" s="0">
-        <v>516</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s" s="0">
-        <v>517</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" t="s" s="0">
-        <v>518</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
@@ -2499,7 +2499,7 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" t="s" s="0">
-        <v>475</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
